--- a/data/Education.xlsx
+++ b/data/Education.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IsaacEvans\Documents\Uni\Applied_Data_Science\european_productivity\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFC648E3-B21F-4DD0-AACF-5EF9D56DBB04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D6FFCC8-6253-42B6-AB25-87D81FC0F524}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19305" yWindow="660" windowWidth="17250" windowHeight="8865" tabRatio="801" firstSheet="6" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19305" yWindow="660" windowWidth="17250" windowHeight="8865" tabRatio="801" firstSheet="6" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -5949,11 +5949,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:AI41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B18" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A50" sqref="A42:XFD50"/>
+      <selection pane="bottomRight" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.4" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -24047,11 +24047,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:AI41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A43" sqref="A43:XFD50"/>
+      <selection pane="bottomRight" activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.4" customHeight="1" x14ac:dyDescent="0.3"/>
